--- a/veri/turkiye_geneli.xlsx
+++ b/veri/turkiye_geneli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahide\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahide\Desktop\is_analitik_odev\veri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0E33D4-0CC5-4889-B9DA-7DCA3EDDFA26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3A43D1-40D6-412B-B620-A2145829C7F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{A6048D78-C244-48EB-83DB-3DD76459F337}"/>
   </bookViews>
@@ -140,15 +140,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C836ED6-44CA-4773-BDF2-3D8D89E35853}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -514,10 +518,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>544322</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>91994</v>
       </c>
     </row>
@@ -525,10 +529,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>510155</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>95323</v>
       </c>
     </row>
@@ -536,10 +540,10 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>565468</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>92637</v>
       </c>
     </row>
@@ -547,10 +551,10 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>615357</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>91022</v>
       </c>
     </row>
@@ -558,10 +562,10 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>641241</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>95895</v>
       </c>
     </row>
@@ -569,10 +573,10 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>636121</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>93489</v>
       </c>
     </row>
@@ -580,10 +584,10 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>638311</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>94219</v>
       </c>
     </row>
@@ -591,10 +595,10 @@
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>641973</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>99663</v>
       </c>
     </row>
@@ -602,10 +606,10 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>591742</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>114162</v>
       </c>
     </row>
@@ -613,10 +617,10 @@
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>582715</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>118568</v>
       </c>
     </row>
@@ -624,10 +628,10 @@
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>592775</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>120117</v>
       </c>
     </row>
@@ -635,10 +639,10 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>603751</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>123325</v>
       </c>
     </row>
@@ -646,10 +650,10 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>600138</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>125305</v>
       </c>
     </row>
@@ -657,10 +661,10 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>599704</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>130913</v>
       </c>
     </row>
@@ -668,10 +672,10 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>602982</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>131830</v>
       </c>
     </row>
@@ -679,10 +683,10 @@
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>594493</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>126164</v>
       </c>
     </row>
@@ -690,10 +694,10 @@
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>569459</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>128411</v>
       </c>
     </row>
@@ -701,10 +705,10 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>554389</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>143573</v>
       </c>
     </row>
@@ -712,10 +716,10 @@
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>542314</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>156587</v>
       </c>
     </row>
@@ -723,10 +727,10 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>488335</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>136570</v>
       </c>
     </row>
@@ -734,10 +738,10 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>563140</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>175779</v>
       </c>
     </row>
@@ -745,10 +749,10 @@
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>575891</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>182437</v>
       </c>
     </row>
@@ -756,10 +760,10 @@
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>567011</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>173342</v>
       </c>
     </row>
@@ -767,12 +771,16 @@
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>568395</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>187343</v>
       </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -782,6 +790,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x010100EAB32C1F203E4C46882F56616A12B528" ma:contentTypeVersion="3" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="a07907ed63b7525a77afb675b236f7f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c027cd6-060d-4002-8ef0-4718453e0c3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a28df303380e6581bdd2af5aa8815d70" ns2:_="">
     <xsd:import namespace="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
@@ -919,22 +942,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648B7C30-B875-4535-AB2F-4CB616F6A973}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3147DFA-2A2F-4BE7-8C80-737DB9198F79}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -950,28 +982,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C33213C6-9835-4399-9BDB-936757F8796C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648B7C30-B875-4535-AB2F-4CB616F6A973}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6c027cd6-060d-4002-8ef0-4718453e0c3b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>